--- a/biology/Médecine/Canal_condylaire/Canal_condylaire.xlsx
+++ b/biology/Médecine/Canal_condylaire/Canal_condylaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canal condylaire (ou canal condylien postérieur) est un canal osseux inconstant qui traverse la partie basilaire de l'os occipital.
 Il démarre au fond de la fosse condylaire derrière le condyle occipital.
